--- a/Template_input.xlsx
+++ b/Template_input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed760104dc4d70dd/Coding/Python/StreamLit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed760104dc4d70dd/Coding/Python/Streamlit_Meter/Streamlit_Meter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{4D4CC68B-504B-E24C-A5E5-73C43DA04B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48525476-9E6E-7C42-BF3D-FE84E7B63BB0}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{4D4CC68B-504B-E24C-A5E5-73C43DA04B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A62D1FEF-0C7C-7A46-8E02-B0855325E140}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17600" xr2:uid="{13060412-6620-D740-8B8C-6C6DD2E1A90F}"/>
   </bookViews>
@@ -47,195 +47,6 @@
     <t>CaO</t>
   </si>
   <si>
-    <r>
-      <t>SiO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Al</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Fe</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>T</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Na</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>O</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>O</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>TiO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
     <t>Component 1: Major Elemental Composition (wt.%)</t>
   </si>
   <si>
@@ -262,12 +73,33 @@
       <t xml:space="preserve"> Component 2: Major Elemental Composition (wt.%), </t>
     </r>
   </si>
+  <si>
+    <t>SiO2</t>
+  </si>
+  <si>
+    <t>TiO2</t>
+  </si>
+  <si>
+    <t>Al2O3</t>
+  </si>
+  <si>
+    <t>Fe2O3T</t>
+  </si>
+  <si>
+    <t>Na2O</t>
+  </si>
+  <si>
+    <t>K2O</t>
+  </si>
+  <si>
+    <t>P2O5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -276,13 +108,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -390,10 +215,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -411,10 +236,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -736,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21427E7-3C99-9C49-8EDC-D54A6AC1D709}">
   <dimension ref="A1:T644"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="J140" sqref="A72:J140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -751,7 +572,7 @@
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -763,7 +584,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -777,64 +598,64 @@
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="L2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="S2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
